--- a/Sample _Ideal_IQ_data.xlsx
+++ b/Sample _Ideal_IQ_data.xlsx
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="19">
-        <f t="shared" ref="D25:D42" si="1">DEGREES(ATAN2(B25,C25))</f>
+        <f>DEGREES(ATAN2(B25,C25))</f>
         <v>0</v>
       </c>
       <c r="E25" s="20"/>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="21">
-        <f t="shared" ref="H25" si="2">DEGREES(ATAN2(F25,G25))</f>
+        <f t="shared" ref="H25" si="1">DEGREES(ATAN2(F25,G25))</f>
         <v>180</v>
       </c>
       <c r="I25" s="22"/>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" ref="L25" si="3">DEGREES(ATAN2(J25,K25))</f>
+        <f t="shared" ref="L25" si="2">DEGREES(ATAN2(J25,K25))</f>
         <v>0</v>
       </c>
       <c r="M25" s="24"/>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" ref="P25" si="4">DEGREES(ATAN2(N25,O25))</f>
+        <f t="shared" ref="P25" si="3">DEGREES(ATAN2(N25,O25))</f>
         <v>180</v>
       </c>
       <c r="Q25" s="27"/>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="19">
-        <f t="shared" ref="D26:D42" si="5">DEGREES(ATAN2(B26,C26))</f>
+        <f t="shared" ref="D26:D42" si="4">DEGREES(ATAN2(B26,C26))</f>
         <v>0</v>
       </c>
       <c r="E26" s="20"/>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="21">
-        <f t="shared" ref="H26:H42" si="6">DEGREES(ATAN2(F26,G26))</f>
+        <f t="shared" ref="H26:H42" si="5">DEGREES(ATAN2(F26,G26))</f>
         <v>180</v>
       </c>
       <c r="I26" s="22"/>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="23">
-        <f t="shared" ref="L26:L42" si="7">DEGREES(ATAN2(J26,K26))</f>
+        <f t="shared" ref="L26:L42" si="6">DEGREES(ATAN2(J26,K26))</f>
         <v>0</v>
       </c>
       <c r="M26" s="24"/>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="26">
-        <f t="shared" ref="P26:P42" si="8">DEGREES(ATAN2(N26,O26))</f>
+        <f t="shared" ref="P26:P42" si="7">DEGREES(ATAN2(N26,O26))</f>
         <v>180</v>
       </c>
       <c r="Q26" s="27"/>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E27" s="20"/>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I27" s="22"/>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M27" s="24"/>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q27" s="27"/>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28" s="20"/>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I28" s="22"/>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M28" s="24"/>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q28" s="27"/>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" s="20"/>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I29" s="22"/>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M29" s="24"/>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q29" s="27"/>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E30" s="20"/>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I30" s="22"/>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M30" s="24"/>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q30" s="27"/>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E31" s="20"/>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I31" s="22"/>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M31" s="24"/>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q31" s="27"/>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E32" s="20"/>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I32" s="22"/>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M32" s="24"/>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q32" s="27"/>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E33" s="20"/>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I33" s="22"/>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M33" s="24"/>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q33" s="27"/>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E34" s="20"/>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I34" s="22"/>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M34" s="24"/>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q34" s="27"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E35" s="20"/>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I35" s="22"/>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M35" s="24"/>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q35" s="27"/>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E36" s="20"/>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I36" s="22"/>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M36" s="24"/>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q36" s="27"/>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E37" s="20"/>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I37" s="22"/>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M37" s="24"/>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q37" s="27"/>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E38" s="20"/>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I38" s="22"/>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M38" s="24"/>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q38" s="27"/>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" s="20"/>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I39" s="22"/>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M39" s="24"/>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q39" s="27"/>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E40" s="20"/>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I40" s="22"/>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M40" s="24"/>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q40" s="27"/>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E41" s="20"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I41" s="22"/>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M41" s="24"/>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q41" s="27"/>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E42" s="20"/>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I42" s="22"/>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M42" s="24"/>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="Q42" s="27"/>
